--- a/data/registration_data.xlsx
+++ b/data/registration_data.xlsx
@@ -478,10 +478,8 @@
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
